--- a/data/Fissures/Fissure_2.xlsx
+++ b/data/Fissures/Fissure_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\PycharmProjects\Fissure\data\Fissures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501B7D2-8110-48AD-AB50-6179707B5DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7332E-58C8-4AF0-B8A7-B7B5261AAF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ81"/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -2052,12 +2052,31 @@
         <v>89.93</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" ref="D81" si="20">B81-B80</f>
+        <f t="shared" ref="D81:D82" si="20">B81-B80</f>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" ref="E81" si="21">C81-C80</f>
+        <f t="shared" ref="E81:E82" si="21">C81-C80</f>
         <v>-0.31999999999999318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B82" s="6">
+        <v>30.26</v>
+      </c>
+      <c r="C82" s="6">
+        <v>89.5</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="21"/>
+        <v>-0.43000000000000682</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fissures/Fissure_2.xlsx
+++ b/data/Fissures/Fissure_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\PycharmProjects\Fissure\data\Fissures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7332E-58C8-4AF0-B8A7-B7B5261AAF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D4859D-A071-4503-A28A-1BDA9E5EB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +196,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ82"/>
+  <dimension ref="A1:AMJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -2052,11 +2055,11 @@
         <v>89.93</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" ref="D81:D82" si="20">B81-B80</f>
+        <f t="shared" ref="D81:D83" si="20">B81-B80</f>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" ref="E81:E82" si="21">C81-C80</f>
+        <f t="shared" ref="E81:E83" si="21">C81-C80</f>
         <v>-0.31999999999999318</v>
       </c>
     </row>
@@ -2077,6 +2080,196 @@
       <c r="E82" s="8">
         <f t="shared" si="21"/>
         <v>-0.43000000000000682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="10">
+        <v>45837</v>
+      </c>
+      <c r="B83" s="2">
+        <v>30.21</v>
+      </c>
+      <c r="C83" s="2">
+        <v>89.73</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="20"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="E83" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23000000000000398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="10">
+        <v>45844</v>
+      </c>
+      <c r="B84" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>89.89</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" ref="D84:D92" si="22">B84-B83</f>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+      <c r="E84" s="8">
+        <f t="shared" ref="E84:E92" si="23">C84-C83</f>
+        <v>0.15999999999999659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="10">
+        <v>45851</v>
+      </c>
+      <c r="B85" s="2">
+        <v>30.25</v>
+      </c>
+      <c r="C85" s="2">
+        <v>89.43</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="23"/>
+        <v>-0.45999999999999375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="10">
+        <v>45858</v>
+      </c>
+      <c r="B86" s="2">
+        <v>30.22</v>
+      </c>
+      <c r="C86" s="2">
+        <v>89.83</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="22"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="23"/>
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="10">
+        <v>45865</v>
+      </c>
+      <c r="B87" s="2">
+        <v>30.24</v>
+      </c>
+      <c r="C87" s="2">
+        <v>89.83</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="22"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="10">
+        <v>45872</v>
+      </c>
+      <c r="B88" s="2">
+        <v>30.21</v>
+      </c>
+      <c r="C88" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="22"/>
+        <v>-2.9999999999997584E-2</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="23"/>
+        <v>7.000000000000739E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="10">
+        <v>45886</v>
+      </c>
+      <c r="B89" s="2">
+        <v>30.28</v>
+      </c>
+      <c r="C89" s="2">
+        <v>89.51</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="22"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="23"/>
+        <v>-0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="10">
+        <v>45893</v>
+      </c>
+      <c r="B90" s="2">
+        <v>30.27</v>
+      </c>
+      <c r="C90" s="2">
+        <v>89.93</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="22"/>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="23"/>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="10">
+        <v>45900</v>
+      </c>
+      <c r="B91" s="2">
+        <v>30.28</v>
+      </c>
+      <c r="C91" s="2">
+        <v>89.86</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="22"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="23"/>
+        <v>-7.000000000000739E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B92" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="C92" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="22"/>
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="23"/>
+        <v>-6.0000000000002274E-2</v>
       </c>
     </row>
   </sheetData>
